--- a/data/handaa1224.xlsx
+++ b/data/handaa1224.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="July25" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ass2-Q3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="191">
   <si>
     <t>Lang: und</t>
   </si>
@@ -514,6 +514,90 @@
   </si>
   <si>
     <t>Ratio</t>
+  </si>
+  <si>
+    <t>normalized-losses</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>fuel-type</t>
+  </si>
+  <si>
+    <t>aspiration</t>
+  </si>
+  <si>
+    <t>num-of-doors</t>
+  </si>
+  <si>
+    <t>body-style</t>
+  </si>
+  <si>
+    <t>drive-wheels</t>
+  </si>
+  <si>
+    <t>engine-location</t>
+  </si>
+  <si>
+    <t>wheel-base</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>curb-weight</t>
+  </si>
+  <si>
+    <t>engine-type</t>
+  </si>
+  <si>
+    <t>num-of-cylinders</t>
+  </si>
+  <si>
+    <t>engine-size</t>
+  </si>
+  <si>
+    <t>fuel-system</t>
+  </si>
+  <si>
+    <t>bore</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>compression-ratio</t>
+  </si>
+  <si>
+    <t>horsepower</t>
+  </si>
+  <si>
+    <t>peak-rpm</t>
+  </si>
+  <si>
+    <t>city-mpg</t>
+  </si>
+  <si>
+    <t>highway-mpg</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>symboling</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Continuous</t>
   </si>
 </sst>
 </file>
@@ -880,7 +964,7 @@
   <dimension ref="A1:C452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3233,12 +3317,314 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>